--- a/pitomets.com.ua/user_agreement is_empty.xlsx
+++ b/pitomets.com.ua/user_agreement is_empty.xlsx
@@ -87,9 +87,6 @@
     <t>The page about the information User Agreement is opened.</t>
   </si>
   <si>
-    <t>Click on the UserAgreement in the Information section.</t>
-  </si>
-  <si>
     <t>000.4</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Critical</t>
+  </si>
+  <si>
+    <t>Click on the User Agreement in the Information section.</t>
   </si>
 </sst>
 </file>
@@ -331,18 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -351,6 +339,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -375,15 +375,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:colOff>2867025</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -406,7 +406,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6877050" y="457200"/>
+          <a:off x="6896100" y="419100"/>
           <a:ext cx="2809875" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,15 +700,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -754,7 +754,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="13"/>
@@ -825,10 +825,10 @@
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="13"/>
@@ -838,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
